--- a/RunOrWalk/AccuracyVStimeVSsamplesize.xlsx
+++ b/RunOrWalk/AccuracyVStimeVSsamplesize.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Accuracy</t>
   </si>
@@ -57,18 +57,27 @@
   <si>
     <t>no.Windows</t>
   </si>
+  <si>
+    <t>https://plot.ly/~e0032186/1/#plot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -923,9 +933,15 @@
         <v>1.6540999999999999</v>
       </c>
     </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/RunOrWalk/AccuracyVStimeVSsamplesize.xlsx
+++ b/RunOrWalk/AccuracyVStimeVSsamplesize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Accuracy</t>
   </si>
@@ -59,6 +59,54 @@
   </si>
   <si>
     <t>https://plot.ly/~e0032186/1/#plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 5 features : </t>
+  </si>
+  <si>
+    <t>11,10,5,7,35</t>
+  </si>
+  <si>
+    <t>PSD,AccX</t>
+  </si>
+  <si>
+    <t>Median,AccY</t>
+  </si>
+  <si>
+    <t>PSD,AccY</t>
+  </si>
+  <si>
+    <t>Maximum, AccY</t>
+  </si>
+  <si>
+    <t>PSD, gyroZ</t>
+  </si>
+  <si>
+    <t>Conclude, Variable in the frequency domain is essential for instantaneous movement detection, as they are very sensitive to small changes.</t>
+  </si>
+  <si>
+    <t>Which Model Performed better, and why?</t>
+  </si>
+  <si>
+    <t>For small sample size, KNN and Random forest gives highest accuracy.</t>
+  </si>
+  <si>
+    <t>Random forest is robust in overfitting , naïve bayes is very fragile to overfitting</t>
+  </si>
+  <si>
+    <t>KNN is subjective to bad features, selecting feature might be troublesome, choosing k is troublesome also, works better in low dimensional space with a lot of points</t>
+  </si>
+  <si>
+    <t>SVM is good with outlier, it generally works better with high dimensional space, little points (Finds a linear line to split data)</t>
+  </si>
+  <si>
+    <t>What do you think makes the activities different and separable in your chosen modalities?</t>
+  </si>
+  <si>
+    <t>Then, pick one sample from your dataset and show us which activity it is classified into.</t>
+  </si>
+  <si>
+    <t>Run allalgo.</t>
   </si>
 </sst>
 </file>
@@ -74,10 +122,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,14 +147,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -124,16 +176,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>560918</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>441648</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>346399</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>102002</xdr:rowOff>
+      <xdr:rowOff>165502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -156,7 +208,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4032251" y="730250"/>
+          <a:off x="3323168" y="793750"/>
           <a:ext cx="5923814" cy="5129085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -520,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,15 +985,111 @@
         <v>1.6540999999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A36" r:id="rId1" location="plot" xr:uid="{BE14EC57-AD17-4843-9E60-FB026A3BF8D3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
